--- a/biology/Botanique/Arboretum_de_Meilahti/Arboretum_de_Meilahti.xlsx
+++ b/biology/Botanique/Arboretum_de_Meilahti/Arboretum_de_Meilahti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'arboretum de Meilahti (finnois : Meilahden puistoarboretum) est un arboretum du quartier de Meilahti à Helsinki en Finlande[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arboretum de Meilahti (finnois : Meilahden puistoarboretum) est un arboretum du quartier de Meilahti à Helsinki en Finlande.
 Il est situé entre Tamminiemi et le musée de plein air de Seurasaari.
 </t>
         </is>
@@ -512,12 +524,14 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans l'ancien domaine du manoir de Meilahti, entre les rues Johannesbergintie et Meilahdentie, dans une vallée située entre trois falaises, se trouve un parc planté de nombreuses espèces d'arbres sur 3 hectares[2].
-L'Arboretum, créé en 1967, présente plus de 140 espèces d'arbres et d'arbustes et une centaine d'arbustes[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans l'ancien domaine du manoir de Meilahti, entre les rues Johannesbergintie et Meilahdentie, dans une vallée située entre trois falaises, se trouve un parc planté de nombreuses espèces d'arbres sur 3 hectares.
+L'Arboretum, créé en 1967, présente plus de 140 espèces d'arbres et d'arbustes et une centaine d'arbustes. 
 Les arbres et les arbustes ont des plaques d'identification précises. 
-Le parc est l'un des trois arboretums d'Helsinki, avec l'arboretum de Viikki et l'arboretum de Niskala[2].
+Le parc est l'un des trois arboretums d'Helsinki, avec l'arboretum de Viikki et l'arboretum de Niskala.
 On y trouve aussi le café de Tamminiementie, le restaurant Villa Angelica et le  musée Urho Kekkonen .
 </t>
         </is>
